--- a/src/resources/apis.xlsx
+++ b/src/resources/apis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcxy/Desktop/ttt/tt/src/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcxy/git/ttt/ttt/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,72 +27,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bashURI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://risk.bat.tcredit.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/riskData/trics/checkName?nameEn=dbtest1&amp;productLine[]=5,7,9&amp;id=undefined&amp;variable=</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bashURI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://risk.bat.tcredit.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/riskData/trics/checkName?nameEn=dbtest1&amp;productLine[]=5,7,9&amp;id=undefined&amp;variable=</t>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
+    <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,23 +195,23 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -225,216 +229,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -714,7 +508,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -722,74 +516,80 @@
     <col min="1" max="16384" width="18.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>123456</v>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/apis.xlsx
+++ b/src/resources/apis.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcxy/git/ttt/ttt/src/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengjiali/workspace/ttt/tt/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1020" windowWidth="28080" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="1680" windowWidth="12400" windowHeight="9040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="4"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>userName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +94,14 @@
   </si>
   <si>
     <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +513,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -565,8 +570,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -579,8 +584,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2</v>
+      <c r="A5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
